--- a/templates/Leases/Lease Worksheets.xlsx
+++ b/templates/Leases/Lease Worksheets.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Lease" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511" iterate="1"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Lease WorkSheet</t>
   </si>
@@ -198,9 +197,6 @@
     <t>GET DATA</t>
   </si>
   <si>
-    <t>http://test.xbrl.us/php/dispatch.php?Task=xbrlCIKLookup</t>
-  </si>
-  <si>
     <t>Assets</t>
   </si>
   <si>
@@ -208,6 +204,15 @@
   </si>
   <si>
     <t>aapl</t>
+  </si>
+  <si>
+    <t>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlCIKLookup</t>
+  </si>
+  <si>
+    <t>xbrlValues</t>
+  </si>
+  <si>
+    <t>xbrlCIKLookup</t>
   </si>
 </sst>
 </file>
@@ -216,9 +221,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="175" formatCode="_(* #,##0,,\ &quot;M&quot;_);_(* \(#,##0,,\ &quot;M&quot;\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0,,\ &quot;M&quot;_);_(* \(#,##0,,\ &quot;M&quot;\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +333,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9.9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -669,7 +690,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -721,11 +742,11 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -779,13 +800,13 @@
     <xf numFmtId="6" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -796,6 +817,8 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1079,10 +1102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P70"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1131,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>38</v>
@@ -1182,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(D70&amp;"&amp;Ticker="&amp;B3),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(B72&amp;"&amp;Ticker="&amp;B3),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
         <v>0000320193</v>
       </c>
       <c r="E5" s="37"/>
@@ -1268,7 +1291,7 @@
       <c r="P7" t="str">
         <f>_xlfn.WEBSERVICE(""&amp;$B$70&amp;"&amp;Element="&amp;J7&amp;"&amp;Period="&amp;J5&amp;"&amp;Year="&amp;J6&amp;"&amp;CIK="&amp;$B5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Small=true&amp;Axis="&amp;J4&amp;"")</f>
         <v xml:space="preserve">&lt;?xml version="1.0"?&gt;
-&lt;dataRequest date="2015-09-03T17:17:12-0400"&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;3000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;4000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyTwentyMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;5500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;3000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointZeroZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyThirteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;3000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyThirteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FloatingRateNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyFourteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyFourteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FloatingRateNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FloatingRateNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyThirteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;14000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyThirteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateRangeFromZeroPointFourFiveToThreePointEightFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyFourteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;10000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyFourteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateRangeFromOnePointZeroFiveToFourPointFourFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointSixThreePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointFiveFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointOneFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointFiveZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateThreePointFourFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointThreeEightPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointSevenFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointNineZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointZeroZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointSevenZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateThreePointTwoZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateFourPointThreeEightPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenYenDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenYenDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointThreeFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;/dataRequest&gt;
+&lt;dataRequest date="2015-09-04T15:52:46-0400"&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;3000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;4000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyTwentyMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;5500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;3000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointZeroZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyThirteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;3000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyThirteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FloatingRateNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyFourteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyFourteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FloatingRateNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FloatingRateNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyThirteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;14000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyThirteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateRangeFromZeroPointFourFiveToThreePointEightFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyFourteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;10000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyFourteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateRangeFromOnePointZeroFiveToFourPointFourFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointSixThreePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointFiveFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointOneFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointFiveZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateThreePointFourFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointThreeEightPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointSevenFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointNineZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointZeroZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointSevenZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateThreePointTwoZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateFourPointThreeEightPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenYenDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenYenDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointThreeFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;/dataRequest&gt;
 </v>
       </c>
     </row>
@@ -1310,7 +1333,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="19"/>
       <c r="I9" s="24" t="str">
@@ -1336,7 +1359,7 @@
       <c r="P9" t="str">
         <f>_xlfn.WEBSERVICE(""&amp;$B$70&amp;"&amp;Element="&amp;K$7&amp;"&amp;Period="&amp;K$5&amp;"&amp;Year="&amp;K$6&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Small=true&amp;Axis="&amp;J$4&amp;"")</f>
         <v xml:space="preserve">&lt;?xml version="1.0"?&gt;
-&lt;dataRequest date="2015-09-03T17:17:15-0400"&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0051&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0030&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0051&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0448&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0391&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0090&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0053&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0110&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0108&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0031&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyTwentyMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0244&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0079&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0054&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointZeroZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FloatingRateNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointSixThreePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointFiveFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointOneFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointFiveZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateThreePointFourFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointThreeEightPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointSevenFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointNineZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointZeroZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointSevenZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateThreePointTwoZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateFourPointThreeEightPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenYenDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenYenDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointThreeFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;/dataRequest&gt;
+&lt;dataRequest date="2015-09-04T15:52:47-0400"&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0051&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0030&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0051&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0448&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0391&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0090&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0053&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0110&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0108&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0031&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyTwentyMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0244&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0079&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0054&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointZeroZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FloatingRateNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointSixThreePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointFiveFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointOneFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointFiveZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateThreePointFourFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointThreeEightPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointSevenFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointNineZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointZeroZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointSevenZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateThreePointTwoZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateFourPointThreeEightPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenYenDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenYenDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointThreeFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;/dataRequest&gt;
 </v>
       </c>
     </row>
@@ -1421,7 +1444,7 @@
       <c r="P12" t="str">
         <f>_xlfn.WEBSERVICE(""&amp;$B$70&amp;"&amp;Element="&amp;N$7&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=4&amp;DimReqd=true&amp;Small=true&amp;Axis="&amp;J$4&amp;"&amp;Year="&amp;K6&amp;"")</f>
         <v xml:space="preserve">&lt;?xml version="1.0"?&gt;
-&lt;dataRequest date="2015-09-03T17:17:12-0400"&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;72687&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0045&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;72687&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0100&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;72687&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0240&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;72687&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0385&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;88578&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0045&lt;/amount&gt;&lt;period&gt;1Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;88578&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0100&lt;/amount&gt;&lt;period&gt;1Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;88578&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0240&lt;/amount&gt;&lt;period&gt;1Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;88578&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0385&lt;/amount&gt;&lt;period&gt;1Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;96354&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0045&lt;/amount&gt;&lt;period&gt;2Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;96354&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0100&lt;/amount&gt;&lt;period&gt;2Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;96354&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0240&lt;/amount&gt;&lt;period&gt;2Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;96354&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0385&lt;/amount&gt;&lt;period&gt;2Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0105&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0045&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0445&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0385&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0345&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0210&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0100&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0240&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0285&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0105&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0045&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0445&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0385&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0345&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0210&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0100&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0240&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0285&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0105&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0045&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0445&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0385&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0345&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0210&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0100&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0100&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0163&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0155&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0215&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0038&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0250&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0075&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0345&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0240&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0285&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;/dataRequest&gt;
+&lt;dataRequest date="2015-09-04T15:52:47-0400"&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;72687&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0045&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;72687&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0100&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;72687&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0240&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;72687&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0385&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;88578&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0045&lt;/amount&gt;&lt;period&gt;1Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;88578&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0100&lt;/amount&gt;&lt;period&gt;1Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;88578&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0240&lt;/amount&gt;&lt;period&gt;1Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;88578&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0385&lt;/amount&gt;&lt;period&gt;1Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;96354&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0045&lt;/amount&gt;&lt;period&gt;2Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;96354&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0100&lt;/amount&gt;&lt;period&gt;2Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;96354&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0240&lt;/amount&gt;&lt;period&gt;2Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;96354&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0385&lt;/amount&gt;&lt;period&gt;2Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0105&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0045&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0445&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0385&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0345&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0210&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0100&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0240&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0285&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0105&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0045&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0445&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0385&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0345&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0210&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0100&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0240&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0285&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0105&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0045&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0445&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0385&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0345&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0210&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0100&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0100&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0163&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0155&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0215&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0038&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0250&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0075&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0345&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0240&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0285&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;/dataRequest&gt;
 </v>
       </c>
     </row>
@@ -1522,7 +1545,7 @@
       <c r="P15" t="str">
         <f>_xlfn.WEBSERVICE(""&amp;$B$70&amp;"&amp;Element="&amp;J$7&amp;"&amp;Period="&amp;J$5&amp;"&amp;Year="&amp;J$6&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;Small=true&amp;DimReqd=true&amp;Axis="&amp;J$4&amp;"")</f>
         <v xml:space="preserve">&lt;?xml version="1.0"?&gt;
-&lt;dataRequest date="2015-09-03T17:17:12-0400"&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;3000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;4000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyTwentyMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;5500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;3000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointZeroZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyThirteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;3000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyThirteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FloatingRateNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyFourteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyFourteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FloatingRateNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FloatingRateNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyThirteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;14000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyThirteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateRangeFromZeroPointFourFiveToThreePointEightFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyFourteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;10000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyFourteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateRangeFromOnePointZeroFiveToFourPointFourFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointSixThreePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointFiveFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointOneFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointFiveZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateThreePointFourFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointThreeEightPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointSevenFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointNineZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointZeroZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointSevenZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateThreePointTwoZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateFourPointThreeEightPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenYenDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenYenDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointThreeFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;/dataRequest&gt;
+&lt;dataRequest date="2015-09-04T15:52:46-0400"&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;3000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;4000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyTwentyMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;5500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;3000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointZeroZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyThirteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;3000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyThirteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FloatingRateNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyFourteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyFourteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FloatingRateNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FloatingRateNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyThirteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;14000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyThirteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateRangeFromZeroPointFourFiveToThreePointEightFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyFourteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;10000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyFourteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateRangeFromOnePointZeroFiveToFourPointFourFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointSixThreePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointFiveFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointOneFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointFiveZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateThreePointFourFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointThreeEightPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointSevenFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointNineZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointZeroZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointSevenZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateThreePointTwoZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateFourPointThreeEightPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenYenDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenYenDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointThreeFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;/dataRequest&gt;
 </v>
       </c>
     </row>
@@ -2305,31 +2328,43 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68" s="22" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="53" t="s">
         <v>35</v>
       </c>
       <c r="B68" s="9"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" s="9"/>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="52" t="s">
+        <v>61</v>
+      </c>
       <c r="B69" s="9"/>
     </row>
-    <row r="70" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A70" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A72" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B70" r:id="rId1"/>
-    <hyperlink ref="D70" r:id="rId2"/>
+    <hyperlink ref="B72" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId3"/>

--- a/templates/Leases/Lease Worksheets.xlsx
+++ b/templates/Leases/Lease Worksheets.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\David\Documents\GitHub\data_analysis_toolkit\templates\Leases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13178"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13185"/>
   </bookViews>
   <sheets>
     <sheet name="Lease" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterate="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Lease WorkSheet</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Assets</t>
   </si>
   <si>
-    <t>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=22f14062-1cc0-0298-1cae-cd793a60c05f</t>
-  </si>
-  <si>
     <t>aapl</t>
   </si>
   <si>
@@ -213,6 +210,18 @@
   </si>
   <si>
     <t>xbrlCIKLookup</t>
+  </si>
+  <si>
+    <t>API_KEY</t>
+  </si>
+  <si>
+    <t>344858fc-6bbb-4870-9c3a-9ddf866f87e7</t>
+  </si>
+  <si>
+    <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AND USE YOUR OWN API KEY AT HTTP://XBRL.US/APIREQUEST</t>
+  </si>
+  <si>
+    <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
 </sst>
 </file>
@@ -220,10 +229,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0,,\ &quot;M&quot;_);_(* \(#,##0,,\ &quot;M&quot;\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0,,\ &quot;M&quot;_);_(* \(#,##0,,\ &quot;M&quot;\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +358,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0C343D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -690,7 +719,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -710,7 +739,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -732,7 +761,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -742,11 +771,11 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -764,13 +793,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -779,7 +808,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -797,16 +826,16 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -819,6 +848,13 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1102,35 +1138,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.796875" customWidth="1"/>
-    <col min="3" max="3" width="6.1328125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="80.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.265625" customWidth="1"/>
-    <col min="11" max="11" width="25.265625" customWidth="1"/>
-    <col min="12" max="12" width="17.06640625" customWidth="1"/>
-    <col min="14" max="14" width="22.86328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.06640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.15" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:16" ht="24.75" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1149,12 +1185,12 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>38</v>
@@ -1167,20 +1203,20 @@
       <c r="I3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="11" t="e">
         <f>MIN(_xlfn.FILTERXML(P7,"/dataRequest/fact[not(preceding-sibling::fact/dimensionCount &lt;= fact/dimensionCount) and not(following-sibling::fact/dimensionCount &lt; fact/dimensionCount)]/dimensionCount"))</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="27" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$70&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;$B5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;$B5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
         <v>APPLE INC</v>
       </c>
       <c r="E4" s="35" t="s">
@@ -1200,12 +1236,12 @@
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
     </row>
-    <row r="5" spans="1:16" ht="20.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="27" t="str">
-        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(B72&amp;"&amp;Ticker="&amp;B3),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
+        <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(B69&amp;"&amp;Ticker="&amp;B3),"//dataRequest/tickerLookup/cik"),"0000000000")</f>
         <v>0000320193</v>
       </c>
       <c r="E5" s="37"/>
@@ -1225,7 +1261,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
@@ -1254,13 +1290,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="27">
         <f>_xlfn.NUMBERVALUE(_xlfn.WEBSERVICE("http://finance.yahoo.com/d/quotes.csv?s="&amp;B3&amp;"&amp;f=l1"))</f>
-        <v>110.37</v>
+        <v>102.71</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>41</v>
@@ -1288,14 +1324,12 @@
       <c r="N7" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="P7" t="str">
-        <f>_xlfn.WEBSERVICE(""&amp;$B$70&amp;"&amp;Element="&amp;J7&amp;"&amp;Period="&amp;J5&amp;"&amp;Year="&amp;J6&amp;"&amp;CIK="&amp;$B5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Small=true&amp;Axis="&amp;J4&amp;"")</f>
-        <v xml:space="preserve">&lt;?xml version="1.0"?&gt;
-&lt;dataRequest date="2015-09-04T15:52:46-0400"&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;3000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;4000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyTwentyMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;5500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;3000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointZeroZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyThirteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;3000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyThirteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FloatingRateNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyFourteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyFourteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FloatingRateNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FloatingRateNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyThirteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;14000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyThirteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateRangeFromZeroPointFourFiveToThreePointEightFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyFourteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;10000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyFourteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateRangeFromOnePointZeroFiveToFourPointFourFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointSixThreePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointFiveFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointOneFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointFiveZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateThreePointFourFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointThreeEightPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointSevenFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointNineZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointZeroZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointSevenZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateThreePointTwoZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateFourPointThreeEightPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenYenDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenYenDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointThreeFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;/dataRequest&gt;
-</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="P7" t="e">
+        <f>_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;J7&amp;"&amp;Period="&amp;J5&amp;"&amp;Year="&amp;J6&amp;"&amp;CIK="&amp;$B5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Small=true&amp;Axis="&amp;J4&amp;"")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="E8" s="40" t="s">
@@ -1306,21 +1340,21 @@
         <f>B30</f>
         <v>645000000</v>
       </c>
-      <c r="I8" s="24" t="str">
+      <c r="I8" s="24" t="e">
         <f t="array" ref="I8:I34">_xlfn.FILTERXML(P7,"/dataRequest/fact[dimensionCount = "&amp;J3&amp;"]/dimensions/dimensionPair[axisLocalName='"&amp;J4&amp;"']/memberLocalName")</f>
-        <v>SeniorNotesDueTwentySixteenMember</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J8" s="24">
         <f t="shared" ref="J8:J34" si="0">IF(AND(ISERROR(K8),ISERROR(N8)),0, IFERROR(MAX(_xlfn.FILTERXML(P$15,"/dataRequest/fact[dimensions/dimensionPair[axisLocalName='"&amp;J$4&amp;"']/memberLocalName='"&amp;I8&amp;"']/amount")),0))</f>
-        <v>1000000000</v>
-      </c>
-      <c r="K8" s="49">
+        <v>0</v>
+      </c>
+      <c r="K8" s="49" t="e">
         <f>_xlfn.FILTERXML($P$9,"/dataRequest/fact[dimensions/dimensionPair[axisLocalName='"&amp;J$4&amp;"']/memberLocalName='"&amp;I8&amp;"']/amount")</f>
-        <v>5.1000000000000004E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L8" s="24">
         <f>IFERROR(J8*IFERROR(K8,N8),0)</f>
-        <v>5100000</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17"/>
       <c r="N8" s="49" t="e">
@@ -1331,124 +1365,120 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>57</v>
       </c>
       <c r="B9" s="19"/>
-      <c r="I9" s="24" t="str">
-        <v>SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember</v>
+      <c r="I9" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J9" s="24">
         <f t="shared" si="0"/>
-        <v>1500000000</v>
-      </c>
-      <c r="K9" s="49">
+        <v>0</v>
+      </c>
+      <c r="K9" s="49" t="e">
         <f t="shared" ref="K9:K34" si="2">_xlfn.FILTERXML($P$9,"/dataRequest/fact[dimensions/dimensionPair[axisLocalName='"&amp;J$4&amp;"']/memberLocalName='"&amp;I9&amp;"']/amount")</f>
-        <v>3.0000000000000001E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L9" s="24">
         <f t="shared" ref="L9:L34" si="3">IFERROR(J9*IFERROR(K9,N9),0)</f>
-        <v>4500000</v>
+        <v>0</v>
       </c>
       <c r="M9" s="17"/>
-      <c r="N9" s="49">
-        <f t="shared" si="1"/>
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="P9" t="str">
-        <f>_xlfn.WEBSERVICE(""&amp;$B$70&amp;"&amp;Element="&amp;K$7&amp;"&amp;Period="&amp;K$5&amp;"&amp;Year="&amp;K$6&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Small=true&amp;Axis="&amp;J$4&amp;"")</f>
-        <v xml:space="preserve">&lt;?xml version="1.0"?&gt;
-&lt;dataRequest date="2015-09-04T15:52:47-0400"&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0051&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0030&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0051&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0448&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0391&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0090&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0053&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0110&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0108&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0031&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyTwentyMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0244&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0079&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0054&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointZeroZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FloatingRateNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointSixThreePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointFiveFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointOneFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointFiveZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateThreePointFourFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointThreeEightPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointSevenFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointNineZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointZeroZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointSevenZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateThreePointTwoZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateFourPointThreeEightPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateEffectivePercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenYenDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenYenDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointThreeFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;39&lt;/count&gt;&lt;/dataRequest&gt;
-</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N9" s="49" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P9" t="e">
+        <f>_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;K$7&amp;"&amp;Period="&amp;K$5&amp;"&amp;Year="&amp;K$6&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Small=true&amp;Axis="&amp;J$4&amp;"")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="I10" s="24" t="str">
-        <v>SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember</v>
+      <c r="I10" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J10" s="24">
         <f t="shared" si="0"/>
-        <v>1500000000</v>
-      </c>
-      <c r="K10" s="49">
+        <v>0</v>
+      </c>
+      <c r="K10" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>5.1000000000000004E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L10" s="24">
         <f t="shared" si="3"/>
-        <v>7650000.0000000009</v>
+        <v>0</v>
       </c>
       <c r="M10" s="17"/>
-      <c r="N10" s="49">
-        <f t="shared" si="1"/>
-        <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.5">
+      <c r="N10" s="49" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="I11" s="24" t="str">
-        <v>SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember</v>
+      <c r="I11" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J11" s="24">
         <f t="shared" si="0"/>
-        <v>1000000000</v>
-      </c>
-      <c r="K11" s="49">
+        <v>0</v>
+      </c>
+      <c r="K11" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>4.48E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L11" s="24">
         <f t="shared" si="3"/>
-        <v>44800000</v>
+        <v>0</v>
       </c>
       <c r="M11" s="17"/>
-      <c r="N11" s="49">
-        <f t="shared" si="1"/>
-        <v>4.4499999999999998E-2</v>
+      <c r="N11" s="49" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="P11" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="24" t="str">
-        <v>SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember</v>
+      <c r="I12" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J12" s="24">
         <f t="shared" si="0"/>
-        <v>3000000000</v>
-      </c>
-      <c r="K12" s="49">
+        <v>0</v>
+      </c>
+      <c r="K12" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>3.9100000000000003E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L12" s="24">
         <f t="shared" si="3"/>
-        <v>117300000.00000001</v>
+        <v>0</v>
       </c>
       <c r="M12" s="17"/>
-      <c r="N12" s="49">
-        <f t="shared" si="1"/>
-        <v>3.85E-2</v>
-      </c>
-      <c r="P12" t="str">
-        <f>_xlfn.WEBSERVICE(""&amp;$B$70&amp;"&amp;Element="&amp;N$7&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=4&amp;DimReqd=true&amp;Small=true&amp;Axis="&amp;J$4&amp;"&amp;Year="&amp;K6&amp;"")</f>
-        <v xml:space="preserve">&lt;?xml version="1.0"?&gt;
-&lt;dataRequest date="2015-09-04T15:52:47-0400"&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;72687&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0045&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;72687&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0100&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;72687&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0240&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;72687&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0385&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;88578&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0045&lt;/amount&gt;&lt;period&gt;1Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;88578&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0100&lt;/amount&gt;&lt;period&gt;1Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;88578&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0240&lt;/amount&gt;&lt;period&gt;1Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;88578&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0385&lt;/amount&gt;&lt;period&gt;1Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;96354&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0045&lt;/amount&gt;&lt;period&gt;2Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;96354&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0100&lt;/amount&gt;&lt;period&gt;2Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;96354&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0240&lt;/amount&gt;&lt;period&gt;2Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;96354&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2013-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0385&lt;/amount&gt;&lt;period&gt;2Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0105&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0045&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0445&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0385&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0345&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0210&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0100&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0240&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;104191&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0285&lt;/amount&gt;&lt;period&gt;3Q&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0105&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0045&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0445&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0385&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0345&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0210&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0100&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0240&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;118521&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0285&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2013&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0105&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0045&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0445&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0385&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0345&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0210&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0100&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0100&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0163&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0155&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0215&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0038&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0250&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0075&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0345&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0240&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;DebtInstrumentInterestRateStatedPercentage&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/member&gt;&lt;units&gt;pure&lt;/units&gt;&lt;amount&gt;0.0285&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;47&lt;/count&gt;&lt;/dataRequest&gt;
-</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N12" s="49" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P12" t="e">
+        <f>_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;N$7&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=4&amp;DimReqd=true&amp;Small=true&amp;Axis="&amp;J$4&amp;"&amp;Year="&amp;K6&amp;"")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1456,390 +1486,388 @@
         <v>2013</v>
       </c>
       <c r="E13" s="14"/>
-      <c r="I13" s="24" t="str">
-        <v>SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember</v>
+      <c r="I13" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J13" s="24">
         <f t="shared" si="0"/>
-        <v>2500000000</v>
-      </c>
-      <c r="K13" s="49">
+        <v>0</v>
+      </c>
+      <c r="K13" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>8.9999999999999993E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L13" s="24">
         <f t="shared" si="3"/>
-        <v>22500000</v>
+        <v>0</v>
       </c>
       <c r="M13" s="17"/>
-      <c r="N13" s="49">
-        <f t="shared" si="1"/>
-        <v>3.4500000000000003E-2</v>
+      <c r="N13" s="49" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="P13" t="str">
-        <f>""&amp;$B$70&amp;"&amp;Element="&amp;N$7&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis="&amp;J$4&amp;"&amp;Year="&amp;K6&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=22f14062-1cc0-0298-1cae-cd793a60c05f&amp;Element=DebtInstrumentInterestRateStatedPercentage&amp;CIK=0000320193&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis=DebtInstrumentAxis&amp;Year=2014</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+        <f>""&amp;$B$67&amp;"&amp;Element="&amp;N$7&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis="&amp;J$4&amp;"&amp;Year="&amp;K6&amp;""</f>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=344858fc-6bbb-4870-9c3a-9ddf866f87e7&amp;Element=DebtInstrumentInterestRateStatedPercentage&amp;CIK=0000320193&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis=DebtInstrumentAxis&amp;Year=2014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="23">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$70&amp;"&amp;Element="&amp;$A14&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A14&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
         <v>610000000</v>
       </c>
-      <c r="I14" s="24" t="str">
-        <v>SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember</v>
+      <c r="I14" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J14" s="24">
         <f t="shared" si="0"/>
-        <v>2000000000</v>
-      </c>
-      <c r="K14" s="49">
+        <v>0</v>
+      </c>
+      <c r="K14" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>5.3E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L14" s="24">
         <f t="shared" si="3"/>
-        <v>10600000</v>
+        <v>0</v>
       </c>
       <c r="M14" s="17"/>
-      <c r="N14" s="49">
-        <f t="shared" si="1"/>
-        <v>2.1000000000000001E-2</v>
+      <c r="N14" s="49" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="P14" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="24">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$70&amp;"&amp;Element="&amp;$A15&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A15&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
         <v>613000000</v>
       </c>
       <c r="E15" s="13"/>
-      <c r="I15" s="24" t="str">
-        <v>SeniorNotesDueTwentyEighteenMember</v>
+      <c r="I15" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J15" s="24">
         <f t="shared" si="0"/>
-        <v>2000000000</v>
-      </c>
-      <c r="K15" s="49">
+        <v>0</v>
+      </c>
+      <c r="K15" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>1.0999999999999999E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L15" s="24">
         <f t="shared" si="3"/>
-        <v>22000000</v>
+        <v>0</v>
       </c>
       <c r="M15" s="17"/>
       <c r="N15" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P15" t="str">
-        <f>_xlfn.WEBSERVICE(""&amp;$B$70&amp;"&amp;Element="&amp;J$7&amp;"&amp;Period="&amp;J$5&amp;"&amp;Year="&amp;J$6&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;Small=true&amp;DimReqd=true&amp;Axis="&amp;J$4&amp;"")</f>
-        <v xml:space="preserve">&lt;?xml version="1.0"?&gt;
-&lt;dataRequest date="2015-09-04T15:52:46-0400"&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroFivePercentDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesZeroPointFourFivePercentDueTwentySixteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesFourPointFourFivePercentDueTwentyFortyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;3000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointEightFivePercentDueTwentyFortyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneZeroPercentDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;4000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointZeroPercentDueTwentyEighteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentySeventeenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyTwentyMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;5500000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;3000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;127538&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2014-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SeniorNotesDueTwentyNineteenMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;1000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyNineteenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;1&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentySeventeenMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointZeroZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyThirteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;3000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyThirteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FloatingRateNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyFourteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;2000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyFourteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FloatingRateNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FloatingRateNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SeniorNotesDueTwentyTwentyMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyThirteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;14000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyThirteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateRangeFromZeroPointFourFiveToThreePointEightFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;TwentyFourteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;10000000000&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;TwentyFourteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateRangeFromOnePointZeroFiveToFourPointFourFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FirstQuarterTwentyFifteenEuroDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointSixThreePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateOnePointFiveFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointOneFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointFiveZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateThreePointFourFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointThreeEightPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;SecondQuarterTwentyFifteenSwissFrancDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointSevenFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointNineZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointZeroZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateTwoPointSevenZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateThreePointTwoZeroPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateFourPointThreeEightPercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;fact&gt;&lt;entity&gt;&lt;![CDATA[APPLE INC]]&gt;&lt;/entity&gt;&lt;accessionID&gt;134915&lt;/accessionID&gt;&lt;elementName&gt;SeniorNotes&lt;/elementName&gt;&lt;namespace&gt;http://fasb.org/us-gaap/2015-01-31&lt;/namespace&gt;&lt;axis&gt;DebtInstrumentAxis&lt;/axis&gt;&lt;member&gt;ThirdQuarterTwentyFifteenYenDenominatedDebtIssuanceMember&lt;/member&gt;&lt;units&gt;USD&lt;/units&gt;&lt;amount&gt;0&lt;/amount&gt;&lt;period&gt;Y&lt;/period&gt;&lt;year&gt;2014&lt;/year&gt;&lt;dimensions&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;DebtInstrumentAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;ThirdQuarterTwentyFifteenYenDenominatedDebtIssuanceMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;dimensionPair&gt;&lt;axisLocalName&gt;LongtermDebtTypeAxis&lt;/axisLocalName&gt;&lt;memberLocalName&gt;FixedRateZeroPointThreeFivePercentageNotesMember&lt;/memberLocalName&gt;&lt;/dimensionPair&gt;&lt;/dimensions&gt;&lt;dimensionCount&gt;2&lt;/dimensionCount&gt;&lt;/fact&gt;&lt;count&gt;43&lt;/count&gt;&lt;/dataRequest&gt;
-</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P15" t="e">
+        <f>_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;J$7&amp;"&amp;Period="&amp;J$5&amp;"&amp;Year="&amp;J$6&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;Small=true&amp;DimReqd=true&amp;Axis="&amp;J$4&amp;"")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="24">
-        <f t="shared" ref="B16:B29" si="4">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$70&amp;"&amp;Element="&amp;$A16&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A16&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
         <v>587000000</v>
       </c>
-      <c r="I16" s="24" t="str">
-        <v>SeniorNotesOnePointZeroPercentDueTwentyEighteenMember</v>
+      <c r="I16" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J16" s="24">
         <f t="shared" si="0"/>
-        <v>4000000000</v>
-      </c>
-      <c r="K16" s="49">
+        <v>0</v>
+      </c>
+      <c r="K16" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>1.0800000000000001E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L16" s="24">
         <f t="shared" si="3"/>
-        <v>43200000</v>
+        <v>0</v>
       </c>
       <c r="M16" s="17"/>
-      <c r="N16" s="49">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N16" s="49" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="24">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$70&amp;"&amp;Element="&amp;$A17&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A17&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
         <v>551000000</v>
       </c>
-      <c r="I17" s="24" t="str">
-        <v>EuroDenominatedSeniorNotesOnePointZeroPercentDueTwentyTwentyTwoMember</v>
+      <c r="I17" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J17" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="49">
+      <c r="K17" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L17" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M17" s="17"/>
-      <c r="N17" s="49">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N17" s="49" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="24">
-        <f t="shared" si="4"/>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A18&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
         <v>505000000</v>
       </c>
-      <c r="I18" s="24" t="str">
-        <v>EuroDenominatedSeniorNotesOnePointSixThreePercentDueTwentyTwentySixMember</v>
+      <c r="I18" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J18" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="49">
+      <c r="K18" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L18" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M18" s="17"/>
-      <c r="N18" s="49">
-        <f t="shared" si="1"/>
-        <v>1.6299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N18" s="49" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="24">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$70&amp;"&amp;Element="&amp;$A19&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A19&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
         <v>1855000000</v>
       </c>
-      <c r="I19" s="24" t="str">
-        <v>SeniorNotesOnePointFiveFivePercentDueTwentyTwentyMember</v>
+      <c r="I19" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J19" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="49">
+      <c r="K19" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L19" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M19" s="17"/>
-      <c r="N19" s="49">
-        <f t="shared" si="1"/>
-        <v>1.55E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N19" s="49" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="24">
-        <f t="shared" si="4"/>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A20&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
         <v>136000000</v>
       </c>
       <c r="C20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B70&amp;"&amp;Element="&amp;$A20&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/accessionID")</f>
-        <v>118521</v>
-      </c>
-      <c r="I20" s="24" t="str">
-        <v>SeniorNotesTwoPointOneFivePercentDueTwentyTwentyTwoMember</v>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B67&amp;"&amp;Element="&amp;$A20&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/accessionID")</f>
+        <v>142669</v>
+      </c>
+      <c r="I20" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="49">
+      <c r="K20" s="49" t="e">
         <f>_xlfn.FILTERXML($P$9,"/dataRequest/fact[dimensions/dimensionPair[axisLocalName='"&amp;J$4&amp;"']/memberLocalName='"&amp;I20&amp;"']/amount")</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L20" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M20" s="17"/>
-      <c r="N20" s="49">
-        <f t="shared" si="1"/>
-        <v>2.1499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N20" s="49" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="24" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$70&amp;"&amp;Element="&amp;$A21&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A21&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
         <v>NIL</v>
       </c>
       <c r="C21" t="e">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B65&amp;"&amp;Element="&amp;$A21&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/accessionID")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I21" s="24" t="str">
-        <v>SwissFrancDenominatedSeniorNotesZeroPointThreeEightPercentDueTwentyTwentyFourMember</v>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;#REF!&amp;"&amp;Element="&amp;$A21&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/accessionID")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I21" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J21" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="49">
+      <c r="K21" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L21" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M21" s="17"/>
-      <c r="N21" s="49">
-        <f t="shared" si="1"/>
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="24.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N21" s="49" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A22&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
         <v>NIL</v>
       </c>
-      <c r="I22" s="24" t="str">
-        <v>SeniorNotesTwoPointFiveZeroPercentDueTwentyTwentyFiveMember</v>
+      <c r="I22" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J22" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="49">
+      <c r="K22" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L22" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M22" s="17"/>
-      <c r="N22" s="49">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N22" s="49" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A23&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
         <v>NIL</v>
       </c>
-      <c r="I23" s="24" t="str">
-        <v>SwissFrancDenominatedSeniorNotesZeroPointSevenFivePercentDueTwentyThirtyMember</v>
+      <c r="I23" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J23" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="49">
+      <c r="K23" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L23" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M23" s="17"/>
-      <c r="N23" s="49">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N23" s="49" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A24&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
         <v>NIL</v>
       </c>
-      <c r="I24" s="24" t="str">
-        <v>SeniorNotesThreePointFourFivePercentDueTwentyFortyFiveMember</v>
+      <c r="I24" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J24" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="49">
+      <c r="K24" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L24" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M24" s="17"/>
-      <c r="N24" s="49">
-        <f t="shared" si="1"/>
-        <v>3.4500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N24" s="49" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="24">
-        <f t="shared" si="4"/>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A25&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
         <v>16960000000</v>
       </c>
-      <c r="I25" s="24" t="str">
-        <v>SeniorNotesDueTwentySeventeenMember</v>
+      <c r="I25" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J25" s="24">
         <f t="shared" si="0"/>
-        <v>1000000000</v>
-      </c>
-      <c r="K25" s="49">
+        <v>0</v>
+      </c>
+      <c r="K25" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>3.0999999999999999E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L25" s="24">
         <f t="shared" si="3"/>
-        <v>3100000</v>
+        <v>0</v>
       </c>
       <c r="M25" s="17"/>
       <c r="N25" s="49" t="e">
@@ -1847,24 +1875,24 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A26&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
         <v>NIL</v>
       </c>
-      <c r="I26" s="24" t="str">
-        <v>SeniorNotesDueTwentyTwentyMember</v>
+      <c r="I26" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J26" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="49">
+      <c r="K26" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L26" s="24">
         <f t="shared" si="3"/>
@@ -1876,87 +1904,87 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A27&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
         <v>NIL</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="I27" s="24" t="str">
-        <v>SeniorNotesTwoPointFourZeroPercentDueTwentyTwentyThreeMember</v>
+      <c r="I27" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J27" s="24">
         <f t="shared" si="0"/>
-        <v>5500000000</v>
-      </c>
-      <c r="K27" s="49">
+        <v>0</v>
+      </c>
+      <c r="K27" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>2.4400000000000002E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L27" s="24">
         <f t="shared" si="3"/>
-        <v>134200000.00000001</v>
+        <v>0</v>
       </c>
       <c r="M27" s="17"/>
-      <c r="N27" s="49">
-        <f t="shared" si="1"/>
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N27" s="49" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A28&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
         <v>NIL</v>
       </c>
-      <c r="I28" s="24" t="str">
-        <v>SeniorNotesTwoPointEightFivePercentDueTwentyTwentyOneMember</v>
+      <c r="I28" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J28" s="24">
         <f t="shared" si="0"/>
-        <v>3000000000</v>
-      </c>
-      <c r="K28" s="49">
+        <v>0</v>
+      </c>
+      <c r="K28" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>7.9000000000000008E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L28" s="24">
         <f t="shared" si="3"/>
-        <v>23700000.000000004</v>
+        <v>0</v>
       </c>
       <c r="M28" s="17"/>
-      <c r="N28" s="49">
-        <f t="shared" si="1"/>
-        <v>2.8500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N28" s="49" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A29&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
         <v>NIL</v>
       </c>
-      <c r="I29" s="24" t="str">
-        <v>SeniorNotesDueTwentyNineteenMember</v>
+      <c r="I29" s="24" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J29" s="24">
         <f t="shared" si="0"/>
-        <v>1000000000</v>
-      </c>
-      <c r="K29" s="49">
+        <v>0</v>
+      </c>
+      <c r="K29" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>5.4000000000000003E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L29" s="24">
         <f t="shared" si="3"/>
-        <v>5400000</v>
+        <v>0</v>
       </c>
       <c r="M29" s="17"/>
       <c r="N29" s="49" t="e">
@@ -1964,16 +1992,16 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="25">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$70&amp;"&amp;Element="&amp;$A30&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A30&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
         <v>645000000</v>
       </c>
       <c r="I30" s="24" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J30" s="24">
         <f t="shared" si="0"/>
@@ -1981,7 +2009,7 @@
       </c>
       <c r="K30" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L30" s="24">
         <f t="shared" si="3"/>
@@ -1990,12 +2018,12 @@
       <c r="M30" s="17"/>
       <c r="N30" s="49" t="e">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I31" s="24" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J31" s="24">
         <f t="shared" si="0"/>
@@ -2003,7 +2031,7 @@
       </c>
       <c r="K31" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L31" s="24">
         <f t="shared" si="3"/>
@@ -2012,15 +2040,15 @@
       <c r="M31" s="17"/>
       <c r="N31" s="49" t="e">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
       <c r="I32" s="24" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J32" s="24">
         <f t="shared" si="0"/>
@@ -2028,7 +2056,7 @@
       </c>
       <c r="K32" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L32" s="24">
         <f t="shared" si="3"/>
@@ -2037,10 +2065,10 @@
       <c r="M32" s="17"/>
       <c r="N32" s="49" t="e">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>27</v>
       </c>
@@ -2049,7 +2077,7 @@
         <v>16960000000</v>
       </c>
       <c r="I33" s="24" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J33" s="24">
         <f t="shared" si="0"/>
@@ -2057,7 +2085,7 @@
       </c>
       <c r="K33" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L33" s="24">
         <f t="shared" si="3"/>
@@ -2066,10 +2094,10 @@
       <c r="M33" s="17"/>
       <c r="N33" s="49" t="e">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>28</v>
       </c>
@@ -2078,7 +2106,7 @@
         <v>3.6732673267326734</v>
       </c>
       <c r="I34" s="24" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J34" s="46">
         <f t="shared" si="0"/>
@@ -2086,7 +2114,7 @@
       </c>
       <c r="K34" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L34" s="24">
         <f t="shared" si="3"/>
@@ -2095,10 +2123,10 @@
       <c r="M34" s="18"/>
       <c r="N34" s="49" t="e">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>29</v>
       </c>
@@ -2108,35 +2136,35 @@
       </c>
       <c r="J35" s="47">
         <f>SUM(J8:J34)</f>
-        <v>29000000000</v>
+        <v>0</v>
       </c>
       <c r="K35" s="48"/>
       <c r="L35" s="47">
         <f>SUM(L8:L34)</f>
-        <v>444050000</v>
-      </c>
-      <c r="M35" s="16">
+        <v>0</v>
+      </c>
+      <c r="M35" s="16" t="e">
         <f>L35/J35</f>
-        <v>1.5312068965517241E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="45">
-        <f>NPV(B35,B41:B65)</f>
+        <f>NPV(B35,B41:B64)</f>
         <v>4549512707.5096149</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>33</v>
       </c>
@@ -2144,7 +2172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="27">
         <f>B$13</f>
         <v>2013</v>
@@ -2154,7 +2182,7 @@
         <v>610000000</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="27">
         <f>A41+1</f>
         <v>2014</v>
@@ -2164,7 +2192,7 @@
         <v>613000000</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="27">
         <f>A42+1</f>
         <v>2015</v>
@@ -2174,7 +2202,7 @@
         <v>587000000</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="27">
         <f>A43+1</f>
         <v>2016</v>
@@ -2184,7 +2212,7 @@
         <v>551000000</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="27">
         <f>A44+1</f>
         <v>2017</v>
@@ -2194,7 +2222,7 @@
         <v>505000000</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="27">
         <f>IF(B$34&gt;ROW(A46)-ROW(A$46),A45+1,"")</f>
         <v>2018</v>
@@ -2204,169 +2232,184 @@
         <v>505000000</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="27">
         <f>IF(B$34&gt;ROW(A47)-ROW(A$46),A46+1,"")</f>
         <v>2019</v>
       </c>
       <c r="B47" s="24">
-        <f t="shared" ref="B47:B59" si="5">IF(B$34&gt;ROW(A47)-ROW(A$45),B46,IF(B$34&gt;ROW(A47)-ROW(A$46),(B$34-(ROW(A47)-ROW(A$46)))*B46,""))</f>
+        <f t="shared" ref="B47:B59" si="4">IF(B$34&gt;ROW(A47)-ROW(A$45),B46,IF(B$34&gt;ROW(A47)-ROW(A$46),(B$34-(ROW(A47)-ROW(A$46)))*B46,""))</f>
         <v>505000000</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="27">
         <f>IF(B$34&gt;ROW(A48)-ROW(A$46),A47+1,"")</f>
         <v>2020</v>
       </c>
       <c r="B48" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>505000000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="27">
-        <f t="shared" ref="A49:A57" si="6">IF(B$34&gt;ROW(A49)-ROW(A$46),A48+1,"")</f>
+        <f t="shared" ref="A49:A57" si="5">IF(B$34&gt;ROW(A49)-ROW(A$46),A48+1,"")</f>
         <v>2021</v>
       </c>
       <c r="B49" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>340000000.00000006</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B50" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B50" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B51" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B51" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B52" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B52" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B53" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B53" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B54" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B54" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B55" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B55" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B56" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B56" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B57" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B57" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A68" s="53" t="s">
+    <row r="63" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B68" s="9"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A69" s="52" t="s">
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="9"/>
+    </row>
+    <row r="67" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="10" t="str">
+        <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B63</f>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=344858fc-6bbb-4870-9c3a-9ddf866f87e7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B69" s="9"/>
-    </row>
-    <row r="70" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A70" s="22" t="s">
+    </row>
+    <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A71" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A72" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>60</v>
+      <c r="B69" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B70" r:id="rId1"/>
-    <hyperlink ref="B72" r:id="rId2"/>
+    <hyperlink ref="B67" r:id="rId1" display="http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=22f14062-1cc0-0298-1cae-cd793a60c05f"/>
+    <hyperlink ref="B69" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/templates/Leases/Lease Worksheets.xlsx
+++ b/templates/Leases/Lease Worksheets.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\David\Documents\GitHub\data_analysis_toolkit\templates\Leases\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Lease" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -215,24 +210,24 @@
     <t>API_KEY</t>
   </si>
   <si>
-    <t>344858fc-6bbb-4870-9c3a-9ddf866f87e7</t>
-  </si>
-  <si>
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AND USE YOUR OWN API KEY AT HTTP://XBRL.US/APIREQUEST</t>
   </si>
   <si>
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
+  </si>
+  <si>
+    <t>4af8ed08-e6c2-4558-9f19-be677f8186eb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0,,\ &quot;M&quot;_);_(* \(#,##0,,\ &quot;M&quot;\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,7 +912,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -952,7 +947,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1129,44 +1124,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD63"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="75.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="80.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.28515625" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="75.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="24.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="40.200000000000003" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1185,7 +1180,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
@@ -1195,37 +1190,37 @@
       <c r="E3" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="33">
-        <f>B36</f>
-        <v>4549512707.5096149</v>
+      <c r="F3" s="33" t="e">
+        <f ca="1">B36</f>
+        <v>#NAME?</v>
       </c>
       <c r="G3" s="34"/>
       <c r="I3" s="22" t="s">
         <v>45</v>
       </c>
       <c r="J3" s="11" t="e">
-        <f>MIN(_xlfn.FILTERXML(P7,"/dataRequest/fact[not(preceding-sibling::fact/dimensionCount &lt;= fact/dimensionCount) and not(following-sibling::fact/dimensionCount &lt; fact/dimensionCount)]/dimensionCount"))</f>
-        <v>#VALUE!</v>
+        <f ca="1">MIN(_xlfn.FILTERXML(P7,"/dataRequest/fact[not(preceding-sibling::fact/dimensionCount &lt;= fact/dimensionCount) and not(following-sibling::fact/dimensionCount &lt; fact/dimensionCount)]/dimensionCount"))</f>
+        <v>#NAME?</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;$B5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
-        <v>APPLE INC</v>
+      <c r="B4" s="27" t="e">
+        <f ca="1">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element=Assets&amp;Period=Y&amp;CIK="&amp;$B5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/entity")</f>
+        <v>#NAME?</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="29"/>
-      <c r="G4" s="36">
-        <f>F3</f>
-        <v>4549512707.5096149</v>
+      <c r="G4" s="36" t="e">
+        <f ca="1">F3</f>
+        <v>#NAME?</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="50" t="s">
@@ -1236,7 +1231,7 @@
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
     </row>
-    <row r="5" spans="1:16" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="20.7" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
@@ -1261,7 +1256,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
@@ -1271,9 +1266,9 @@
       <c r="E6" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="31">
-        <f>B35*B36</f>
-        <v>36481941.52248276</v>
+      <c r="F6" s="31" t="e">
+        <f ca="1">B35*B36</f>
+        <v>#NAME?</v>
       </c>
       <c r="G6" s="39"/>
       <c r="I6" s="9"/>
@@ -1290,7 +1285,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="16.2" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
@@ -1301,9 +1296,9 @@
       <c r="E7" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="31">
-        <f>G8-F6</f>
-        <v>608518058.47751725</v>
+      <c r="F7" s="31" t="e">
+        <f ca="1">G8-F6</f>
+        <v>#NAME?</v>
       </c>
       <c r="G7" s="39"/>
       <c r="I7" s="22" t="s">
@@ -1325,160 +1320,164 @@
         <v>52</v>
       </c>
       <c r="P7" t="e">
-        <f>_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;J7&amp;"&amp;Period="&amp;J5&amp;"&amp;Year="&amp;J6&amp;"&amp;CIK="&amp;$B5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Small=true&amp;Axis="&amp;J4&amp;"")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f ca="1">_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;J7&amp;"&amp;Period="&amp;J5&amp;"&amp;Year="&amp;J6&amp;"&amp;CIK="&amp;$B5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Small=true&amp;Axis="&amp;J4&amp;"")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="19.95" customHeight="1" thickBot="1">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="E8" s="40" t="s">
         <v>42</v>
       </c>
       <c r="F8" s="41"/>
-      <c r="G8" s="42">
-        <f>B30</f>
-        <v>645000000</v>
+      <c r="G8" s="42" t="e">
+        <f ca="1">B30</f>
+        <v>#NAME?</v>
       </c>
       <c r="I8" s="24" t="e">
-        <f t="array" ref="I8:I34">_xlfn.FILTERXML(P7,"/dataRequest/fact[dimensionCount = "&amp;J3&amp;"]/dimensions/dimensionPair[axisLocalName='"&amp;J4&amp;"']/memberLocalName")</f>
-        <v>#VALUE!</v>
+        <f t="array" aca="1" ref="I8:I34" ca="1">_xlfn.FILTERXML(P7,"/dataRequest/fact[dimensionCount = "&amp;J3&amp;"]/dimensions/dimensionPair[axisLocalName='"&amp;J4&amp;"']/memberLocalName")</f>
+        <v>#NAME?</v>
       </c>
       <c r="J8" s="24">
-        <f t="shared" ref="J8:J34" si="0">IF(AND(ISERROR(K8),ISERROR(N8)),0, IFERROR(MAX(_xlfn.FILTERXML(P$15,"/dataRequest/fact[dimensions/dimensionPair[axisLocalName='"&amp;J$4&amp;"']/memberLocalName='"&amp;I8&amp;"']/amount")),0))</f>
+        <f t="shared" ref="J8:J34" ca="1" si="0">IF(AND(ISERROR(K8),ISERROR(N8)),0, IFERROR(MAX(_xlfn.FILTERXML(P$15,"/dataRequest/fact[dimensions/dimensionPair[axisLocalName='"&amp;J$4&amp;"']/memberLocalName='"&amp;I8&amp;"']/amount")),0))</f>
         <v>0</v>
       </c>
       <c r="K8" s="49" t="e">
-        <f>_xlfn.FILTERXML($P$9,"/dataRequest/fact[dimensions/dimensionPair[axisLocalName='"&amp;J$4&amp;"']/memberLocalName='"&amp;I8&amp;"']/amount")</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xlfn.FILTERXML($P$9,"/dataRequest/fact[dimensions/dimensionPair[axisLocalName='"&amp;J$4&amp;"']/memberLocalName='"&amp;I8&amp;"']/amount")</f>
+        <v>#NAME?</v>
       </c>
       <c r="L8" s="24">
-        <f>IFERROR(J8*IFERROR(K8,N8),0)</f>
+        <f ca="1">IFERROR(J8*IFERROR(K8,N8),0)</f>
         <v>0</v>
       </c>
       <c r="M8" s="17"/>
       <c r="N8" s="49" t="e">
-        <f t="shared" ref="N8:N34" si="1">MAX(_xlfn.FILTERXML(P$12,"/dataRequest/fact[dimensionCount = "&amp;J$3&amp;"][dimensions/dimensionPair[axisLocalName='"&amp;J$4&amp;"']/memberLocalName='"&amp;I8&amp;"']/amount"))</f>
-        <v>#VALUE!</v>
+        <f t="shared" ref="N8:N34" ca="1" si="1">MAX(_xlfn.FILTERXML(P$12,"/dataRequest/fact[dimensionCount = "&amp;J$3&amp;"][dimensions/dimensionPair[axisLocalName='"&amp;J$4&amp;"']/memberLocalName='"&amp;I8&amp;"']/amount"))</f>
+        <v>#NAME?</v>
       </c>
       <c r="P8" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="22" t="s">
         <v>57</v>
       </c>
       <c r="B9" s="19"/>
       <c r="I9" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J9" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="49" t="e">
-        <f t="shared" ref="K9:K34" si="2">_xlfn.FILTERXML($P$9,"/dataRequest/fact[dimensions/dimensionPair[axisLocalName='"&amp;J$4&amp;"']/memberLocalName='"&amp;I9&amp;"']/amount")</f>
-        <v>#VALUE!</v>
+        <f t="shared" ref="K9:K34" ca="1" si="2">_xlfn.FILTERXML($P$9,"/dataRequest/fact[dimensions/dimensionPair[axisLocalName='"&amp;J$4&amp;"']/memberLocalName='"&amp;I9&amp;"']/amount")</f>
+        <v>#NAME?</v>
       </c>
       <c r="L9" s="24">
-        <f t="shared" ref="L9:L34" si="3">IFERROR(J9*IFERROR(K9,N9),0)</f>
+        <f t="shared" ref="L9:L34" ca="1" si="3">IFERROR(J9*IFERROR(K9,N9),0)</f>
         <v>0</v>
       </c>
       <c r="M9" s="17"/>
       <c r="N9" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="P9" t="e">
-        <f>_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;K$7&amp;"&amp;Period="&amp;K$5&amp;"&amp;Year="&amp;K$6&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Small=true&amp;Axis="&amp;J$4&amp;"")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <f ca="1">_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;K$7&amp;"&amp;Period="&amp;K$5&amp;"&amp;Year="&amp;K$6&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Small=true&amp;Axis="&amp;J$4&amp;"")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="I10" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J10" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L10" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M10" s="17"/>
       <c r="N10" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="19.8">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2"/>
       <c r="I11" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J11" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K11" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L11" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M11" s="17"/>
       <c r="N11" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="P11" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J12" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K12" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M12" s="17"/>
       <c r="N12" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="P12" t="e">
-        <f>_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;N$7&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=4&amp;DimReqd=true&amp;Small=true&amp;Axis="&amp;J$4&amp;"&amp;Year="&amp;K6&amp;"")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <f ca="1">_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;N$7&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=4&amp;DimReqd=true&amp;Small=true&amp;Axis="&amp;J$4&amp;"&amp;Year="&amp;K6&amp;"")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1487,684 +1486,706 @@
       </c>
       <c r="E13" s="14"/>
       <c r="I13" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K13" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L13" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M13" s="17"/>
       <c r="N13" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="P13" t="str">
         <f>""&amp;$B$67&amp;"&amp;Element="&amp;N$7&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis="&amp;J$4&amp;"&amp;Year="&amp;K6&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=344858fc-6bbb-4870-9c3a-9ddf866f87e7&amp;Element=DebtInstrumentInterestRateStatedPercentage&amp;CIK=0000320193&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis=DebtInstrumentAxis&amp;Year=2014</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=4af8ed08-e6c2-4558-9f19-be677f8186eb&amp;Element=DebtInstrumentInterestRateStatedPercentage&amp;CIK=0000320193&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis=DebtInstrumentAxis&amp;Year=2014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="23">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A14&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>610000000</v>
+      <c r="B14" s="23" t="e">
+        <f ca="1">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A14&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>#NAME?</v>
       </c>
       <c r="I14" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J14" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K14" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L14" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="P14" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="24">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A15&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>613000000</v>
+      <c r="B15" s="24" t="e">
+        <f ca="1">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A15&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>#NAME?</v>
       </c>
       <c r="E15" s="13"/>
       <c r="I15" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J15" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K15" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L15" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M15" s="17"/>
       <c r="N15" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="P15" t="e">
-        <f>_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;J$7&amp;"&amp;Period="&amp;J$5&amp;"&amp;Year="&amp;J$6&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;Small=true&amp;DimReqd=true&amp;Axis="&amp;J$4&amp;"")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <f ca="1">_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;J$7&amp;"&amp;Period="&amp;J$5&amp;"&amp;Year="&amp;J$6&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;Small=true&amp;DimReqd=true&amp;Axis="&amp;J$4&amp;"")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="24">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A16&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>587000000</v>
+      <c r="B16" s="24" t="e">
+        <f ca="1">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A16&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>#NAME?</v>
       </c>
       <c r="I16" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J16" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L16" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M16" s="17"/>
       <c r="N16" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="24">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A17&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>551000000</v>
+      <c r="B17" s="24" t="e">
+        <f ca="1">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A17&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>#NAME?</v>
       </c>
       <c r="I17" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J17" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K17" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L17" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M17" s="17"/>
       <c r="N17" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="24">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A18&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>505000000</v>
+      <c r="B18" s="24" t="e">
+        <f ca="1">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A18&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>#NAME?</v>
       </c>
       <c r="I18" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J18" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K18" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L18" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M18" s="17"/>
       <c r="N18" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="24">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A19&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>1855000000</v>
+      <c r="B19" s="24" t="e">
+        <f ca="1">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A19&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>#NAME?</v>
       </c>
       <c r="I19" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J19" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K19" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L19" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M19" s="17"/>
       <c r="N19" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="24">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A20&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>136000000</v>
-      </c>
-      <c r="C20">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B67&amp;"&amp;Element="&amp;$A20&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/accessionID")</f>
-        <v>142669</v>
+      <c r="B20" s="24" t="e">
+        <f ca="1">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A20&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C20" t="e">
+        <f ca="1">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;B67&amp;"&amp;Element="&amp;$A20&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/accessionID")</f>
+        <v>#NAME?</v>
       </c>
       <c r="I20" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J20" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K20" s="49" t="e">
-        <f>_xlfn.FILTERXML($P$9,"/dataRequest/fact[dimensions/dimensionPair[axisLocalName='"&amp;J$4&amp;"']/memberLocalName='"&amp;I20&amp;"']/amount")</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xlfn.FILTERXML($P$9,"/dataRequest/fact[dimensions/dimensionPair[axisLocalName='"&amp;J$4&amp;"']/memberLocalName='"&amp;I20&amp;"']/amount")</f>
+        <v>#NAME?</v>
       </c>
       <c r="L20" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M20" s="17"/>
       <c r="N20" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="24" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A21&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
+      <c r="B21" s="24" t="e">
+        <f ca="1">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A21&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>#NAME?</v>
       </c>
       <c r="C21" t="e">
         <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;#REF!&amp;"&amp;Element="&amp;$A21&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"//dataRequest/fact[last()]/accessionID")</f>
         <v>#REF!</v>
       </c>
       <c r="I21" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J21" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L21" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M21" s="17"/>
       <c r="N21" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="24.45" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="24" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A22&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
+      <c r="B22" s="24" t="e">
+        <f ca="1">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A22&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>#NAME?</v>
       </c>
       <c r="I22" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J22" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L22" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M22" s="17"/>
       <c r="N22" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="24" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A23&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
+      <c r="B23" s="24" t="e">
+        <f ca="1">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A23&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>#NAME?</v>
       </c>
       <c r="I23" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J23" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K23" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L23" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M23" s="17"/>
       <c r="N23" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="24" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A24&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
+      <c r="B24" s="24" t="e">
+        <f ca="1">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A24&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>#NAME?</v>
       </c>
       <c r="I24" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J24" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K24" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L24" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M24" s="17"/>
       <c r="N24" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="24">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A25&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>16960000000</v>
+      <c r="B25" s="24" t="e">
+        <f ca="1">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A25&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>#NAME?</v>
       </c>
       <c r="I25" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J25" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K25" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L25" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M25" s="17"/>
       <c r="N25" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="24" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A26&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
+      <c r="B26" s="24" t="e">
+        <f ca="1">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A26&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>#NAME?</v>
       </c>
       <c r="I26" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J26" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K26" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L26" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M26" s="17"/>
       <c r="N26" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="24" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A27&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
+      <c r="B27" s="24" t="e">
+        <f ca="1">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A27&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>#NAME?</v>
       </c>
       <c r="D27" s="7"/>
       <c r="I27" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J27" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K27" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L27" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M27" s="17"/>
       <c r="N27" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="24" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A28&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
+      <c r="B28" s="24" t="e">
+        <f ca="1">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A28&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>#NAME?</v>
       </c>
       <c r="I28" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J28" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K28" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L28" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M28" s="17"/>
       <c r="N28" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="24" t="str">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A29&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>NIL</v>
+      <c r="B29" s="24" t="e">
+        <f ca="1">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A29&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>#NAME?</v>
       </c>
       <c r="I29" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J29" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K29" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L29" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M29" s="17"/>
       <c r="N29" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="25">
-        <f>_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A30&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
-        <v>645000000</v>
+      <c r="B30" s="25" t="e">
+        <f ca="1">_xlfn.FILTERXML(_xlfn.WEBSERVICE(""&amp;$B$67&amp;"&amp;Element="&amp;$A30&amp;"&amp;Period="&amp;B$12&amp;"&amp;Year="&amp;B$13&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=false"),"/dataRequest/fact[last()]/amount")</f>
+        <v>#NAME?</v>
       </c>
       <c r="I30" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J30" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K30" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L30" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M30" s="17"/>
       <c r="N30" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="I31" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J31" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K31" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L31" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M31" s="17"/>
       <c r="N31" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="20.399999999999999" thickBot="1">
       <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
       <c r="I32" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J32" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K32" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L32" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M32" s="17"/>
       <c r="N32" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="43">
-        <f>MAX(IF(B24="NIL",0,B24)+IF(B26="NIL",0,B26)+IF(B28="NIL",0,B28)+IF(B29="NIL",0,B29),IF(B22="NIL",0,B22),IF(B25="NIL",0,B25))</f>
-        <v>16960000000</v>
+      <c r="B33" s="43" t="e">
+        <f ca="1">MAX(IF(B24="NIL",0,B24)+IF(B26="NIL",0,B26)+IF(B28="NIL",0,B28)+IF(B29="NIL",0,B29),IF(B22="NIL",0,B22),IF(B25="NIL",0,B25))</f>
+        <v>#NAME?</v>
       </c>
       <c r="I33" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J33" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K33" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L33" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M33" s="17"/>
       <c r="N33" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="44">
-        <f>IF(B19="NIL",0,B19)/IF(B18="NIL",0,B18)</f>
-        <v>3.6732673267326734</v>
+      <c r="B34" s="44" t="e">
+        <f ca="1">IF(B19="NIL",0,B19)/IF(B18="NIL",0,B18)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I34" s="24" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="J34" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K34" s="49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="L34" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M34" s="18"/>
       <c r="N34" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" thickBot="1">
       <c r="A35" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="44">
-        <f>IFERROR(IFERROR(B20,B21)/B33,L32)</f>
-        <v>8.0188679245283018E-3</v>
+        <f ca="1">IFERROR(IFERROR(B20,B21)/B33,L32)</f>
+        <v>0</v>
       </c>
       <c r="J35" s="47">
-        <f>SUM(J8:J34)</f>
+        <f ca="1">SUM(J8:J34)</f>
         <v>0</v>
       </c>
       <c r="K35" s="48"/>
       <c r="L35" s="47">
-        <f>SUM(L8:L34)</f>
+        <f ca="1">SUM(L8:L34)</f>
         <v>0</v>
       </c>
       <c r="M35" s="16" t="e">
-        <f>L35/J35</f>
+        <f ca="1">L35/J35</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="45">
-        <f>NPV(B35,B41:B64)</f>
-        <v>4549512707.5096149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B36" s="45" t="e">
+        <f ca="1">NPV(B35,B41:B64)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="19.8">
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="22" t="s">
         <v>33</v>
       </c>
@@ -2172,231 +2193,231 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="27">
         <f>B$13</f>
         <v>2013</v>
       </c>
-      <c r="B41" s="24">
-        <f>B14</f>
-        <v>610000000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="24" t="e">
+        <f ca="1">B14</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="27">
         <f>A41+1</f>
         <v>2014</v>
       </c>
-      <c r="B42" s="24">
-        <f>B15</f>
-        <v>613000000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="24" t="e">
+        <f ca="1">B15</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="27">
         <f>A42+1</f>
         <v>2015</v>
       </c>
-      <c r="B43" s="24">
-        <f>B16</f>
-        <v>587000000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="24" t="e">
+        <f ca="1">B16</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="27">
         <f>A43+1</f>
         <v>2016</v>
       </c>
-      <c r="B44" s="24">
-        <f>B17</f>
-        <v>551000000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="24" t="e">
+        <f ca="1">B17</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="27">
         <f>A44+1</f>
         <v>2017</v>
       </c>
-      <c r="B45" s="24">
-        <f>B18</f>
-        <v>505000000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="27">
-        <f>IF(B$34&gt;ROW(A46)-ROW(A$46),A45+1,"")</f>
-        <v>2018</v>
-      </c>
-      <c r="B46" s="24">
-        <f>IF(B$34&gt;ROW(A46)-ROW(A$45),B45,IF(B$34&gt;ROW(A46)-ROW(A$46),(B$34-(ROW(A46)-ROW(A$46)))*B45,""))</f>
-        <v>505000000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="27">
-        <f>IF(B$34&gt;ROW(A47)-ROW(A$46),A46+1,"")</f>
-        <v>2019</v>
-      </c>
-      <c r="B47" s="24">
-        <f t="shared" ref="B47:B59" si="4">IF(B$34&gt;ROW(A47)-ROW(A$45),B46,IF(B$34&gt;ROW(A47)-ROW(A$46),(B$34-(ROW(A47)-ROW(A$46)))*B46,""))</f>
-        <v>505000000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="27">
-        <f>IF(B$34&gt;ROW(A48)-ROW(A$46),A47+1,"")</f>
-        <v>2020</v>
-      </c>
-      <c r="B48" s="24">
-        <f t="shared" si="4"/>
-        <v>505000000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="27">
-        <f t="shared" ref="A49:A57" si="5">IF(B$34&gt;ROW(A49)-ROW(A$46),A48+1,"")</f>
-        <v>2021</v>
-      </c>
-      <c r="B49" s="24">
-        <f t="shared" si="4"/>
-        <v>340000000.00000006</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="B50" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="B51" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="B52" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="B53" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="B54" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="B55" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="B56" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="B57" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="24" t="e">
+        <f ca="1">B18</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="27" t="e">
+        <f ca="1">IF(B$34&gt;ROW(A46)-ROW(A$46),A45+1,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B46" s="24" t="e">
+        <f ca="1">IF(B$34&gt;ROW(A46)-ROW(A$45),B45,IF(B$34&gt;ROW(A46)-ROW(A$46),(B$34-(ROW(A46)-ROW(A$46)))*B45,""))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="27" t="e">
+        <f ca="1">IF(B$34&gt;ROW(A47)-ROW(A$46),A46+1,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B47" s="24" t="e">
+        <f t="shared" ref="B47:B59" ca="1" si="4">IF(B$34&gt;ROW(A47)-ROW(A$45),B46,IF(B$34&gt;ROW(A47)-ROW(A$46),(B$34-(ROW(A47)-ROW(A$46)))*B46,""))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="27" t="e">
+        <f ca="1">IF(B$34&gt;ROW(A48)-ROW(A$46),A47+1,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B48" s="24" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="27" t="e">
+        <f t="shared" ref="A49:A57" ca="1" si="5">IF(B$34&gt;ROW(A49)-ROW(A$46),A48+1,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B49" s="24" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="5" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B50" s="24" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="5" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B51" s="24" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="5" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B52" s="24" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="5" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B53" s="24" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="5" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B54" s="24" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="5" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B55" s="24" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="5" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B56" s="24" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B57" s="24" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="5"/>
-      <c r="B58" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="24" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="5"/>
-      <c r="B59" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="24" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="24">
       <c r="A63" s="56" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="55" t="s">
+      <c r="D63" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="53" t="s">
         <v>35</v>
       </c>
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="52" t="s">
         <v>60</v>
       </c>
       <c r="B66" s="9"/>
     </row>
-    <row r="67" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="57.6">
       <c r="A67" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B67" s="10" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B63</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=344858fc-6bbb-4870-9c3a-9ddf866f87e7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=4af8ed08-e6c2-4558-9f19-be677f8186eb</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="28.8">
       <c r="A69" s="22" t="s">
         <v>36</v>
       </c>

--- a/templates/Leases/Lease Worksheets.xlsx
+++ b/templates/Leases/Lease Worksheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Lease" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
   <si>
-    <t>4af8ed08-e6c2-4558-9f19-be677f8186eb</t>
+    <t>ccf11ea1-e41c-4156-88fb-b8587a0ebb8f</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1139,29 +1139,29 @@
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="75.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="80.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.33203125" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="14" max="14" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.6">
+    <row r="1" spans="1:16" ht="24.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="40.200000000000003" thickBot="1">
+    <row r="2" spans="1:16" ht="41.25" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1231,7 +1231,7 @@
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
     </row>
-    <row r="5" spans="1:16" ht="20.7" customHeight="1">
+    <row r="5" spans="1:16" ht="20.65" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.2" customHeight="1">
+    <row r="7" spans="1:16" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="19.95" customHeight="1" thickBot="1">
+    <row r="8" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="E8" s="40" t="s">
@@ -1416,7 +1416,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="19.8">
+    <row r="11" spans="1:16" ht="20.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="P13" t="str">
         <f>""&amp;$B$67&amp;"&amp;Element="&amp;N$7&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis="&amp;J$4&amp;"&amp;Year="&amp;K6&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=4af8ed08-e6c2-4558-9f19-be677f8186eb&amp;Element=DebtInstrumentInterestRateStatedPercentage&amp;CIK=0000320193&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis=DebtInstrumentAxis&amp;Year=2014</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=ccf11ea1-e41c-4156-88fb-b8587a0ebb8f&amp;Element=DebtInstrumentInterestRateStatedPercentage&amp;CIK=0000320193&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis=DebtInstrumentAxis&amp;Year=2014</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="17.100000000000001" customHeight="1">
@@ -1767,7 +1767,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="24.45" customHeight="1">
+    <row r="22" spans="1:14" ht="24.4" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>18</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="20.399999999999999" thickBot="1">
+    <row r="32" spans="1:14" ht="21" thickBot="1">
       <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" thickBot="1">
+    <row r="35" spans="1:14" ht="15.75" thickBot="1">
       <c r="A35" s="22" t="s">
         <v>29</v>
       </c>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="1:14" ht="15.6" thickTop="1" thickBot="1">
+    <row r="36" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>30</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="19.8">
+    <row r="39" spans="1:14" ht="20.25">
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="24">
+    <row r="63" spans="1:4" ht="24.75">
       <c r="A63" s="56" t="s">
         <v>62</v>
       </c>
@@ -2403,13 +2403,13 @@
       </c>
       <c r="B66" s="9"/>
     </row>
-    <row r="67" spans="1:2" ht="57.6">
+    <row r="67" spans="1:2" ht="60">
       <c r="A67" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B67" s="10" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B63</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=4af8ed08-e6c2-4558-9f19-be677f8186eb</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=ccf11ea1-e41c-4156-88fb-b8587a0ebb8f</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2417,7 +2417,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="28.8">
+    <row r="69" spans="1:2" ht="45">
       <c r="A69" s="22" t="s">
         <v>36</v>
       </c>

--- a/templates/Leases/Lease Worksheets.xlsx
+++ b/templates/Leases/Lease Worksheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Lease" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
   <si>
-    <t>ccf11ea1-e41c-4156-88fb-b8587a0ebb8f</t>
+    <t>affb2aa2-614a-4d14-a5ed-27854f9cdf43</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1136,32 +1136,32 @@
   <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="75.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="80.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.28515625" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="75.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.75">
+    <row r="1" spans="1:16" ht="24.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="41.25" thickBot="1">
+    <row r="2" spans="1:16" ht="40.200000000000003" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1231,7 +1231,7 @@
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
     </row>
-    <row r="5" spans="1:16" ht="20.65" customHeight="1">
+    <row r="5" spans="1:16" ht="20.7" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.149999999999999" customHeight="1">
+    <row r="7" spans="1:16" ht="16.2" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="8" spans="1:16" ht="19.95" customHeight="1" thickBot="1">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="E8" s="40" t="s">
@@ -1416,7 +1416,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="20.25">
+    <row r="11" spans="1:16" ht="19.8">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="P13" t="str">
         <f>""&amp;$B$67&amp;"&amp;Element="&amp;N$7&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis="&amp;J$4&amp;"&amp;Year="&amp;K6&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=ccf11ea1-e41c-4156-88fb-b8587a0ebb8f&amp;Element=DebtInstrumentInterestRateStatedPercentage&amp;CIK=0000320193&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis=DebtInstrumentAxis&amp;Year=2014</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=affb2aa2-614a-4d14-a5ed-27854f9cdf43&amp;Element=DebtInstrumentInterestRateStatedPercentage&amp;CIK=0000320193&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis=DebtInstrumentAxis&amp;Year=2014</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="17.100000000000001" customHeight="1">
@@ -1767,7 +1767,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="24.4" customHeight="1">
+    <row r="22" spans="1:14" ht="24.45" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>18</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="21" thickBot="1">
+    <row r="32" spans="1:14" ht="20.399999999999999" thickBot="1">
       <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75" thickBot="1">
+    <row r="35" spans="1:14" ht="15" thickBot="1">
       <c r="A35" s="22" t="s">
         <v>29</v>
       </c>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:14" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>30</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="20.25">
+    <row r="39" spans="1:14" ht="19.8">
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="24.75">
+    <row r="63" spans="1:4" ht="31.8" customHeight="1">
       <c r="A63" s="56" t="s">
         <v>62</v>
       </c>
@@ -2403,13 +2403,13 @@
       </c>
       <c r="B66" s="9"/>
     </row>
-    <row r="67" spans="1:2" ht="60">
+    <row r="67" spans="1:2" ht="57.6">
       <c r="A67" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B67" s="10" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B63</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=ccf11ea1-e41c-4156-88fb-b8587a0ebb8f</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=affb2aa2-614a-4d14-a5ed-27854f9cdf43</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2417,7 +2417,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="45">
+    <row r="69" spans="1:2" ht="28.8">
       <c r="A69" s="22" t="s">
         <v>36</v>
       </c>

--- a/templates/Leases/Lease Worksheets.xlsx
+++ b/templates/Leases/Lease Worksheets.xlsx
@@ -216,7 +216,7 @@
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
   <si>
-    <t>affb2aa2-614a-4d14-a5ed-27854f9cdf43</t>
+    <t>5fbe9f8a-2911-4fad-af02-7df4516b9870</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1135,9 +1135,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1508,7 +1506,7 @@
       </c>
       <c r="P13" t="str">
         <f>""&amp;$B$67&amp;"&amp;Element="&amp;N$7&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis="&amp;J$4&amp;"&amp;Year="&amp;K6&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=affb2aa2-614a-4d14-a5ed-27854f9cdf43&amp;Element=DebtInstrumentInterestRateStatedPercentage&amp;CIK=0000320193&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis=DebtInstrumentAxis&amp;Year=2014</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=5fbe9f8a-2911-4fad-af02-7df4516b9870&amp;Element=DebtInstrumentInterestRateStatedPercentage&amp;CIK=0000320193&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis=DebtInstrumentAxis&amp;Year=2014</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="17.100000000000001" customHeight="1">
@@ -2409,7 +2407,7 @@
       </c>
       <c r="B67" s="10" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B63</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=affb2aa2-614a-4d14-a5ed-27854f9cdf43</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=5fbe9f8a-2911-4fad-af02-7df4516b9870</v>
       </c>
     </row>
     <row r="68" spans="1:2">

--- a/templates/Leases/Lease Worksheets.xlsx
+++ b/templates/Leases/Lease Worksheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Lease" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
   <si>
-    <t>5fbe9f8a-2911-4fad-af02-7df4516b9870</t>
+    <t>a9de02f6-bbd2-4e8f-a6ab-68355936ff17</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1137,29 +1137,29 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="75.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="80.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.33203125" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="14" max="14" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.6">
+    <row r="1" spans="1:16" ht="24.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="40.200000000000003" thickBot="1">
+    <row r="2" spans="1:16" ht="41.25" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1229,7 +1229,7 @@
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
     </row>
-    <row r="5" spans="1:16" ht="20.7" customHeight="1">
+    <row r="5" spans="1:16" ht="20.65" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.2" customHeight="1">
+    <row r="7" spans="1:16" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="19.95" customHeight="1" thickBot="1">
+    <row r="8" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="E8" s="40" t="s">
@@ -1414,7 +1414,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="19.8">
+    <row r="11" spans="1:16" ht="20.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="P13" t="str">
         <f>""&amp;$B$67&amp;"&amp;Element="&amp;N$7&amp;"&amp;CIK="&amp;$B$5&amp;"&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis="&amp;J$4&amp;"&amp;Year="&amp;K6&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=5fbe9f8a-2911-4fad-af02-7df4516b9870&amp;Element=DebtInstrumentInterestRateStatedPercentage&amp;CIK=0000320193&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis=DebtInstrumentAxis&amp;Year=2014</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=a9de02f6-bbd2-4e8f-a6ab-68355936ff17&amp;Element=DebtInstrumentInterestRateStatedPercentage&amp;CIK=0000320193&amp;Ultimus=true&amp;NoYears=1&amp;DimReqd=true&amp;Axis=DebtInstrumentAxis&amp;Year=2014</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="17.100000000000001" customHeight="1">
@@ -1765,7 +1765,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="24.45" customHeight="1">
+    <row r="22" spans="1:14" ht="24.4" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>18</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="20.399999999999999" thickBot="1">
+    <row r="32" spans="1:14" ht="21" thickBot="1">
       <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" thickBot="1">
+    <row r="35" spans="1:14" ht="15.75" thickBot="1">
       <c r="A35" s="22" t="s">
         <v>29</v>
       </c>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="1:14" ht="15.6" thickTop="1" thickBot="1">
+    <row r="36" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>30</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="19.8">
+    <row r="39" spans="1:14" ht="20.25">
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.8" customHeight="1">
+    <row r="63" spans="1:4" ht="31.9" customHeight="1">
       <c r="A63" s="56" t="s">
         <v>62</v>
       </c>
@@ -2401,13 +2401,13 @@
       </c>
       <c r="B66" s="9"/>
     </row>
-    <row r="67" spans="1:2" ht="57.6">
+    <row r="67" spans="1:2" ht="60">
       <c r="A67" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B67" s="10" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B63</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=5fbe9f8a-2911-4fad-af02-7df4516b9870</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=a9de02f6-bbd2-4e8f-a6ab-68355936ff17</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="28.8">
+    <row r="69" spans="1:2" ht="45">
       <c r="A69" s="22" t="s">
         <v>36</v>
       </c>
